--- a/docentes/Contreras Díaz Irma Ivette Estadisticos 2020.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette Estadisticos 2020.xlsx
@@ -1096,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1211,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1234,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1257,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1280,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1303,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1326,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1349,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
